--- a/biology/Médecine/1317_en_santé_et_médecine/1317_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1317_en_santé_et_médecine/1317_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1317_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1317_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1317 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1317_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1317_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,15 +523,17 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'une des trois plus anciennes pharmacies d'Europe encore en activité en 2011 est attestée au monastère franciscain de Raguse en Croatie[1] ; elle s'ouvrira au public en 1391[2].
-Deux pharmacies sont attestées à Strasbourg en Alsace, l'une, rue des Hallebardes, l'autre, rue du Chaudron, et cette dernière a peut-être déjà été mentionnée en 1314 à l'enseigne de la Cigogne[3].
-Fondation à Cantorbéry, dans le Kent, en Angleterre, par John Maynard, dit le Riche, de l'hôpital Sainte-Marie (Hospital of St. Mary), pour trois frères et quatre sœurs et devenu maisons de l'aumône (almshouses[4]).
-Fondation d'un hospice au Bonhomme en Alsace par les Ribeaupierre, seigneurs du lieu[5].
-Fondation à Étroubles, dans la vallée d'Aoste, d'un hospice resté ouvert jusqu'au XXe siècle[6].
-L'hôpital de Noves, en Provence, est mentionné pour la première fois, et situé dans l'actuelle rue Jean-Moulin[7].
-1315-1317 : grande famine en Europe[8].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>L'une des trois plus anciennes pharmacies d'Europe encore en activité en 2011 est attestée au monastère franciscain de Raguse en Croatie ; elle s'ouvrira au public en 1391.
+Deux pharmacies sont attestées à Strasbourg en Alsace, l'une, rue des Hallebardes, l'autre, rue du Chaudron, et cette dernière a peut-être déjà été mentionnée en 1314 à l'enseigne de la Cigogne.
+Fondation à Cantorbéry, dans le Kent, en Angleterre, par John Maynard, dit le Riche, de l'hôpital Sainte-Marie (Hospital of St. Mary), pour trois frères et quatre sœurs et devenu maisons de l'aumône (almshouses).
+Fondation d'un hospice au Bonhomme en Alsace par les Ribeaupierre, seigneurs du lieu.
+Fondation à Étroubles, dans la vallée d'Aoste, d'un hospice resté ouvert jusqu'au XXe siècle.
+L'hôpital de Noves, en Provence, est mentionné pour la première fois, et situé dans l'actuelle rue Jean-Moulin.
+1315-1317 : grande famine en Europe.</t>
         </is>
       </c>
     </row>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1317_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1317_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,10 +561,12 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le médecin italien Matthieu Silvaticus dédie  à Robert Ier, roi de Naples, sa « somme de diététique et de médecine » (Liber cibalis et medicinalis pandectarum)[9].
-Selon le colophon de l'un des manuscrits conservés, Arnold de Bamberg, médecin du comte palatin Rodolphe Ier, compose un « régime de santé » à la demande d'Augustin Kazotic, évêque de Zagreb[10].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le médecin italien Matthieu Silvaticus dédie  à Robert Ier, roi de Naples, sa « somme de diététique et de médecine » (Liber cibalis et medicinalis pandectarum).
+Selon le colophon de l'un des manuscrits conservés, Arnold de Bamberg, médecin du comte palatin Rodolphe Ier, compose un « régime de santé » à la demande d'Augustin Kazotic, évêque de Zagreb.</t>
         </is>
       </c>
     </row>
